--- a/biology/Botanique/Œillets_et_clématites_dans_un_vase_de_cristal/Œillets_et_clématites_dans_un_vase_de_cristal.xlsx
+++ b/biology/Botanique/Œillets_et_clématites_dans_un_vase_de_cristal/Œillets_et_clématites_dans_un_vase_de_cristal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C5%92illets_et_cl%C3%A9matites_dans_un_vase_de_cristal</t>
+          <t>Œillets_et_clématites_dans_un_vase_de_cristal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Œillets et clématites dans un vase de cristal est un tableau réalisé par le peintre Édouard Manet en 1882.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C5%92illets_et_cl%C3%A9matites_dans_un_vase_de_cristal</t>
+          <t>Œillets_et_clématites_dans_un_vase_de_cristal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Probablement peinte en juillet 1882 à Rueil, cette œuvre appartient à la série de natures mortes, composées principalement de bouquets de fleurs, que Manet a réalisées à la fin de sa vie.
 Le tableau est exposé au musée d'Orsay à Paris depuis 1986.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C5%92illets_et_cl%C3%A9matites_dans_un_vase_de_cristal</t>
+          <t>Œillets_et_clématites_dans_un_vase_de_cristal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce tableau est classé Musées Nationaux Récupération (liste Rose-Valland-MNR).
 </t>
